--- a/legendre_out/DATA/a1/a1IntegrandDataPoints5.000000.xlsx
+++ b/legendre_out/DATA/a1/a1IntegrandDataPoints5.000000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.424536350759639</v>
+        <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>3.763279046966103e-07</v>
+        <v>4.473613573651221e-07</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.42877843536789</v>
+        <v>3.43865949305135</v>
       </c>
       <c r="C3" t="n">
-        <v>3.391475143036961e-07</v>
+        <v>4.084524576704817e-07</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.430466699343294</v>
+        <v>3.440287767951486</v>
       </c>
       <c r="C4" t="n">
-        <v>3.361728178483266e-07</v>
+        <v>3.797122911286922e-07</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.433920356105163</v>
+        <v>3.443801413788623</v>
       </c>
       <c r="C5" t="n">
-        <v>3.013446457828384e-07</v>
+        <v>3.553226748033978e-07</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.435737168099</v>
+        <v>3.445601086046668</v>
       </c>
       <c r="C6" t="n">
-        <v>3.054161138603137e-07</v>
+        <v>3.457259606009508e-07</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.436542735681173</v>
+        <v>3.446372374157259</v>
       </c>
       <c r="C7" t="n">
-        <v>3.059199828263187e-07</v>
+        <v>3.365643816638083e-07</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.440861949100481</v>
+        <v>3.450743006783942</v>
       </c>
       <c r="C8" t="n">
-        <v>2.837073984746007e-07</v>
+        <v>3.257836677127539e-07</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.444324175730245</v>
+        <v>3.454170953942123</v>
       </c>
       <c r="C9" t="n">
-        <v>2.462351681812989e-07</v>
+        <v>2.777504133595791e-07</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.445018335029777</v>
+        <v>3.454856543373759</v>
       </c>
       <c r="C10" t="n">
-        <v>2.203431736723343e-07</v>
+        <v>2.363251013435839e-07</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.44940610739225</v>
+        <v>3.459227176000442</v>
       </c>
       <c r="C11" t="n">
-        <v>1.431058512549894e-07</v>
+        <v>1.626496231509752e-07</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.453639622132605</v>
+        <v>3.463512109948169</v>
       </c>
       <c r="C12" t="n">
-        <v>8.430182189786634e-08</v>
+        <v>9.806946887616721e-08</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,2287 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.45806167396666</v>
+        <v>3.467882742574851</v>
       </c>
       <c r="C13" t="n">
-        <v>6.930071319744686e-08</v>
+        <v>7.394020051289106e-08</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3.686414373908955</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3.454812331030239e-07</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3.687271360698501</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4.676192246169339e-07</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3.689071032956547</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4.39644225147336e-07</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3.689928019746092</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4.451164301976988e-07</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3.690699307856684</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4.407153402310238e-07</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3.691641993325183</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4.429181171586139e-07</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3.692498980114729</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4.794737530837041e-07</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3.693270268225319</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6.516212185524795e-07</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3.694127255014865</v>
+      </c>
+      <c r="C22" t="n">
+        <v>7.963049266978627e-07</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3.695841228593956</v>
+      </c>
+      <c r="C23" t="n">
+        <v>9.765978885991732e-07</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>3.697555202173048</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.03292974805394e-06</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3.699354874431093</v>
+      </c>
+      <c r="C25" t="n">
+        <v>9.412700695373669e-07</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3.701068848010184</v>
+      </c>
+      <c r="C26" t="n">
+        <v>8.808753532094549e-07</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3.70286852026823</v>
+      </c>
+      <c r="C27" t="n">
+        <v>8.940278808634671e-07</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3.703468411020912</v>
+      </c>
+      <c r="C28" t="n">
+        <v>9.04038935807146e-07</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3.704496795168366</v>
+      </c>
+      <c r="C29" t="n">
+        <v>8.683715810904853e-07</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3.706125070068503</v>
+      </c>
+      <c r="C30" t="n">
+        <v>8.207697470702389e-07</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3.707839043647593</v>
+      </c>
+      <c r="C31" t="n">
+        <v>7.641282686099899e-07</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>3.709638715905639</v>
+      </c>
+      <c r="C32" t="n">
+        <v>7.256176972380944e-07</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>3.71135268948473</v>
+      </c>
+      <c r="C33" t="n">
+        <v>6.743639896479762e-07</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>3.713066663063821</v>
+      </c>
+      <c r="C34" t="n">
+        <v>6.58271654228244e-07</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>3.714609239285003</v>
+      </c>
+      <c r="C35" t="n">
+        <v>5.886443053964332e-07</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>3.716494610222004</v>
+      </c>
+      <c r="C36" t="n">
+        <v>5.030691675896851e-07</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>3.718122885122139</v>
+      </c>
+      <c r="C37" t="n">
+        <v>4.25550858856549e-07</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>3.719836858701231</v>
+      </c>
+      <c r="C38" t="n">
+        <v>3.557069847179127e-07</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>3.720693845490776</v>
+      </c>
+      <c r="C39" t="n">
+        <v>4.037856254377296e-07</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>3.721636530959276</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3.001966778453198e-07</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>3.723350504538367</v>
+      </c>
+      <c r="C41" t="n">
+        <v>3.092440935901583e-07</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>3.725064478117458</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2.945560711859485e-07</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>3.729178014707276</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2.596004245655832e-07</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>3.73337724997605</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2.430528828155509e-07</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>3.737747882602732</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2.380349955459668e-07</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>3.754973317072596</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1.888636690375719e-07</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>3.772113052863507</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1.890960515988563e-07</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>3.789167089975462</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1.985551139590175e-07</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>3.797908355228826</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1.960573063214406e-07</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>3.806478223124282</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1.946965353716813e-07</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>3.814876693661827</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1.624499090780593e-07</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>3.823360862878328</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1.625557667491381e-07</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>3.82773149550501</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1.012807420633103e-07</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>3.832102128131692</v>
+      </c>
+      <c r="C54" t="n">
+        <v>9.67517266453342e-08</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>3.840586297348192</v>
+      </c>
+      <c r="C55" t="n">
+        <v>9.785110266678925e-08</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>3.847442191664556</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1.326535460574413e-07</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>3.854383784659876</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1.820107471629027e-07</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>3.856183456917921</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2.06369792878343e-07</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>3.857811731818057</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1.998544498889422e-07</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>3.859611404076103</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2.162984595433635e-07</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>3.86201096708683</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2.423476629628212e-07</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>3.866295901034558</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2.588476102976656e-07</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>3.875037166287922</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2.756158685509932e-07</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>3.876751139867013</v>
+      </c>
+      <c r="C64" t="n">
+        <v>3.224033491106623e-07</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>3.879236401556695</v>
+      </c>
+      <c r="C65" t="n">
+        <v>3.234786554977912e-07</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>3.883521335504422</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2.926413444563841e-07</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>3.887891968131104</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2.581363675416085e-07</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>3.891491312647195</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2.876514348199376e-07</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>3.896376137347605</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2.353160594364418e-07</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>3.900746769974288</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1.8232734492478e-07</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>3.908973843153924</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2.336065421086843e-07</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>3.917886505765197</v>
+      </c>
+      <c r="C72" t="n">
+        <v>7.80832946902405e-08</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>3.926370674981698</v>
+      </c>
+      <c r="C73" t="n">
+        <v>5.968054039755383e-08</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>3.934854844198199</v>
+      </c>
+      <c r="C74" t="n">
+        <v>7.734265112288717e-08</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>3.943510410772608</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1.911076750353093e-07</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>3.952251676025972</v>
+      </c>
+      <c r="C76" t="n">
+        <v>5.443905455412819e-07</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>3.960564447884564</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1.558823674446075e-06</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>3.969305713137928</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1.65750133236722e-06</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>3.977618484996519</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1.272239158340942e-06</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>3.982160514981111</v>
+      </c>
+      <c r="C80" t="n">
+        <v>6.591569101389719e-07</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>3.986274051570929</v>
+      </c>
+      <c r="C81" t="n">
+        <v>5.869989261208286e-07</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>3.994843919466384</v>
+      </c>
+      <c r="C82" t="n">
+        <v>6.797411386415905e-07</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>4.012069353936249</v>
+      </c>
+      <c r="C83" t="n">
+        <v>6.999895190889301e-07</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>4.020724920510658</v>
+      </c>
+      <c r="C84" t="n">
+        <v>4.75148453482077e-07</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>4.02903769236925</v>
+      </c>
+      <c r="C85" t="n">
+        <v>3.282910994530365e-07</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>4.046263126839114</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2.683112378572014e-07</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>4.063402862630025</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2.84222874840097e-07</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>4.080542598420934</v>
+      </c>
+      <c r="C88" t="n">
+        <v>4.432463335514721e-07</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>4.084998929726572</v>
+      </c>
+      <c r="C89" t="n">
+        <v>9.063429292213417e-07</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>4.08816978084789</v>
+      </c>
+      <c r="C90" t="n">
+        <v>9.181352876070659e-07</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>4.097682334211846</v>
+      </c>
+      <c r="C91" t="n">
+        <v>8.477868463039083e-07</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>4.101967268159573</v>
+      </c>
+      <c r="C92" t="n">
+        <v>6.767077800441107e-07</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>4.106423599465209</v>
+      </c>
+      <c r="C93" t="n">
+        <v>4.715757642757437e-07</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>4.114907768681709</v>
+      </c>
+      <c r="C94" t="n">
+        <v>7.333151635553615e-07</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>4.123306239219255</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1.500679596980777e-06</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>4.131961805793665</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1.291628454736683e-06</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>4.133847176730665</v>
+      </c>
+      <c r="C97" t="n">
+        <v>8.49589582420137e-07</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>4.136503835778257</v>
+      </c>
+      <c r="C98" t="n">
+        <v>5.379773958774754e-07</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>4.140617372368075</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2.624799428110424e-07</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>4.149015842905621</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1.865334396256603e-07</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>4.166241277375486</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1.896989489143425e-07</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>4.180210162045077</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1.995076577157262e-07</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>4.200435050278351</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2.036847303541044e-07</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>4.209004918173807</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2.111426981988462e-07</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>4.21774618342717</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2.086628227634652e-07</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>4.226230352643671</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2.065675247881813e-07</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>4.231543670738853</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2.14294337712265e-07</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>4.234971617897036</v>
+      </c>
+      <c r="C108" t="n">
+        <v>2.167435004496433e-07</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>4.24071342938699</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2.157978116719568e-07</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>4.249111899924536</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2.140871412174155e-07</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>4.2521970523669</v>
+      </c>
+      <c r="C111" t="n">
+        <v>2.212946777411423e-07</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>4.257767466498946</v>
+      </c>
+      <c r="C112" t="n">
+        <v>2.100443638995679e-07</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>4.262138099125628</v>
+      </c>
+      <c r="C113" t="n">
+        <v>2.170003172938699e-07</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>4.264537662136355</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2.159506966656768e-07</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>4.267280019862901</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2.201478610252459e-07</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>4.269079692120946</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2.329252493115178e-07</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>4.271479255131674</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2.187063706317989e-07</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>4.273021831352856</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2.219441003377906e-07</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>4.281677397927266</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2.203305340241643e-07</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>4.286305126590811</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2.331311103142919e-07</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>4.29024726582272</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2.22886141405235e-07</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>4.298731435039221</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2.250533738770597e-07</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>4.303359163702766</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2.421423790765827e-07</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>4.307472700292585</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2.560545323644922e-07</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>4.309957961982268</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2.883827502559472e-07</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>4.310129359340176</v>
+      </c>
+      <c r="C126" t="n">
+        <v>2.860752922837012e-07</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>4.311757634240313</v>
+      </c>
+      <c r="C127" t="n">
+        <v>3.519341702486506e-07</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>4.31604256818804</v>
+      </c>
+      <c r="C128" t="n">
+        <v>5.536575790385972e-07</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>4.318613528556677</v>
+      </c>
+      <c r="C129" t="n">
+        <v>7.520292873177409e-07</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>4.320584598172632</v>
+      </c>
+      <c r="C130" t="n">
+        <v>7.446342907168819e-07</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>4.322898462504404</v>
+      </c>
+      <c r="C131" t="n">
+        <v>7.001387975201086e-07</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>4.325555121551995</v>
+      </c>
+      <c r="C132" t="n">
+        <v>6.796444804088358e-07</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>4.327954684562723</v>
+      </c>
+      <c r="C133" t="n">
+        <v>6.697194857833456e-07</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>4.330782740968223</v>
+      </c>
+      <c r="C134" t="n">
+        <v>6.268597122404799e-07</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>4.33318230397895</v>
+      </c>
+      <c r="C135" t="n">
+        <v>5.618763811842943e-07</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>4.337638635284587</v>
+      </c>
+      <c r="C136" t="n">
+        <v>4.160110820786459e-07</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>4.341752171874406</v>
+      </c>
+      <c r="C137" t="n">
+        <v>2.969341693210131e-07</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>4.350407738448815</v>
+      </c>
+      <c r="C138" t="n">
+        <v>5.730667859064043e-07</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>4.354692672396543</v>
+      </c>
+      <c r="C139" t="n">
+        <v>5.527259598379173e-07</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>4.358634811628452</v>
+      </c>
+      <c r="C140" t="n">
+        <v>5.637168353677553e-07</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>4.366947583487043</v>
+      </c>
+      <c r="C141" t="n">
+        <v>4.991838207242212e-07</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>4.371918106866407</v>
+      </c>
+      <c r="C142" t="n">
+        <v>4.976777695210325e-07</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>4.375088957987725</v>
+      </c>
+      <c r="C143" t="n">
+        <v>8.796872835464825e-07</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>4.377745617035317</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1.144127450695672e-06</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>4.379545289293363</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1.103545376070881e-06</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>4.380487974761863</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1.113948908912622e-06</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>4.380830769477681</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1.087322485191876e-06</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>4.381087865514544</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1.094158083951174e-06</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>4.382973236451544</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1.821773655331743e-06</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>4.384687210030635</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1.928270489677204e-06</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>4.386401183609727</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1.803413446649217e-06</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>4.388029458509863</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1.730768936651516e-06</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>4.389057842657317</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1.729712390466103e-06</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>4.389743432088954</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1.633038480617262e-06</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>4.392314392457591</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1.526908178464123e-06</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>4.396599326405318</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1.237934739719015e-06</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>4.400884260353045</v>
+      </c>
+      <c r="C157" t="n">
+        <v>8.705117878170348e-07</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>4.404912098263909</v>
+      </c>
+      <c r="C158" t="n">
+        <v>4.90209350362571e-07</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>4.406111879769273</v>
+      </c>
+      <c r="C159" t="n">
+        <v>5.15993194654908e-07</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>4.4094541282485</v>
+      </c>
+      <c r="C160" t="n">
+        <v>2.792754019909857e-07</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>4.413824760875183</v>
+      </c>
+      <c r="C161" t="n">
+        <v>2.484929125470631e-07</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>4.41622432388591</v>
+      </c>
+      <c r="C162" t="n">
+        <v>2.59461571749779e-07</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>4.418795284254546</v>
+      </c>
+      <c r="C163" t="n">
+        <v>2.561617366418937e-07</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>4.421623340660047</v>
+      </c>
+      <c r="C164" t="n">
+        <v>2.629650351404061e-07</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>4.423337314239138</v>
+      </c>
+      <c r="C165" t="n">
+        <v>2.724377728355831e-07</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>4.424194301028683</v>
+      </c>
+      <c r="C166" t="n">
+        <v>2.740633125413381e-07</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>4.429336221765956</v>
+      </c>
+      <c r="C167" t="n">
+        <v>2.877483137534793e-07</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>4.431392990060865</v>
+      </c>
+      <c r="C168" t="n">
+        <v>3.01727184482054e-07</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>4.440477050030048</v>
+      </c>
+      <c r="C169" t="n">
+        <v>2.932904711827917e-07</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>4.457445388463049</v>
+      </c>
+      <c r="C170" t="n">
+        <v>3.278181028758791e-07</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>4.474756521611869</v>
+      </c>
+      <c r="C171" t="n">
+        <v>4.097909134552506e-07</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>4.491896257402779</v>
+      </c>
+      <c r="C172" t="n">
+        <v>5.676211733466079e-07</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>4.500037631903461</v>
+      </c>
+      <c r="C173" t="n">
+        <v>8.064354515200878e-07</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>4.503122784345824</v>
+      </c>
+      <c r="C174" t="n">
+        <v>8.668641139570812e-07</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>4.509121691872643</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1.192103014331883e-06</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>4.517520162410189</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1.533099725933628e-06</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>4.521890795036872</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1.589715310964418e-06</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>4.526175728984599</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1.68184452033412e-06</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>4.530460662932327</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1.915196386842396e-06</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>4.534574199522145</v>
+      </c>
+      <c r="C180" t="n">
+        <v>2.56538061735659e-06</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>4.539030530827781</v>
+      </c>
+      <c r="C181" t="n">
+        <v>3.01984242717398e-06</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>4.543486862133419</v>
+      </c>
+      <c r="C182" t="n">
+        <v>3.837109617738417e-06</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>4.545800726465191</v>
+      </c>
+      <c r="C183" t="n">
+        <v>4.398179643776911e-06</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>4.549914263055009</v>
+      </c>
+      <c r="C184" t="n">
+        <v>4.233852968990499e-06</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>4.551628236634101</v>
+      </c>
+      <c r="C185" t="n">
+        <v>4.153322909225467e-06</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>4.553942100965873</v>
+      </c>
+      <c r="C186" t="n">
+        <v>4.047929709327105e-06</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>4.558912624345237</v>
+      </c>
+      <c r="C187" t="n">
+        <v>3.173302558513602e-06</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>4.562940462256101</v>
+      </c>
+      <c r="C188" t="n">
+        <v>2.345922701274896e-06</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>4.56688260148801</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1.641165158918737e-06</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>4.571424631472602</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1.103747045459717e-06</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>4.575623866741375</v>
+      </c>
+      <c r="C191" t="n">
+        <v>7.628301137251817e-07</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>4.580080198047011</v>
+      </c>
+      <c r="C192" t="n">
+        <v>5.714489777196673e-07</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>4.58402233727892</v>
+      </c>
+      <c r="C193" t="n">
+        <v>5.105802595236376e-07</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>4.588478668584557</v>
+      </c>
+      <c r="C194" t="n">
+        <v>4.618353826193912e-07</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>4.588650065942466</v>
+      </c>
+      <c r="C195" t="n">
+        <v>4.598261563200145e-07</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>4.592078013100648</v>
+      </c>
+      <c r="C196" t="n">
+        <v>4.071901997461625e-07</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>4.593277794606012</v>
+      </c>
+      <c r="C197" t="n">
+        <v>3.987585922889965e-07</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>4.593534890642876</v>
+      </c>
+      <c r="C198" t="n">
+        <v>3.93824938303279e-07</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>4.596534344406285</v>
+      </c>
+      <c r="C199" t="n">
+        <v>4.126865175085568e-07</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>4.597819824590603</v>
+      </c>
+      <c r="C200" t="n">
+        <v>3.846828498620418e-07</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>4.601504867785649</v>
+      </c>
+      <c r="C201" t="n">
+        <v>4.958152165029524e-07</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>4.603133142685785</v>
+      </c>
+      <c r="C202" t="n">
+        <v>4.78648126434489e-07</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>4.604932814943831</v>
+      </c>
+      <c r="C203" t="n">
+        <v>4.722676795590973e-07</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>4.606646788522922</v>
+      </c>
+      <c r="C204" t="n">
+        <v>4.684188128822859e-07</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>4.608446460780968</v>
+      </c>
+      <c r="C205" t="n">
+        <v>4.613849507446374e-07</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>4.610160434360059</v>
+      </c>
+      <c r="C206" t="n">
+        <v>4.626260701428646e-07</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>4.611617311902286</v>
+      </c>
+      <c r="C207" t="n">
+        <v>4.593037777939792e-07</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>4.615987944528968</v>
+      </c>
+      <c r="C208" t="n">
+        <v>4.025013864127029e-07</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>4.620529974513559</v>
+      </c>
+      <c r="C209" t="n">
+        <v>3.367450099461502e-07</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>4.622929537524286</v>
+      </c>
+      <c r="C210" t="n">
+        <v>3.19121884170539e-07</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>4.623272332240105</v>
+      </c>
+      <c r="C211" t="n">
+        <v>3.316717076111793e-07</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>4.623786524313832</v>
+      </c>
+      <c r="C212" t="n">
+        <v>3.17941851284811e-07</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>4.625586196571877</v>
+      </c>
+      <c r="C213" t="n">
+        <v>3.116592841628245e-07</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>4.628928445051105</v>
+      </c>
+      <c r="C214" t="n">
+        <v>3.065418550350015e-07</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>4.631670802777651</v>
+      </c>
+      <c r="C215" t="n">
+        <v>3.077507461781257e-07</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>4.64049776670997</v>
+      </c>
+      <c r="C216" t="n">
+        <v>3.194494281458229e-07</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>4.649667525358106</v>
+      </c>
+      <c r="C217" t="n">
+        <v>3.122246784307809e-07</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>4.658494489290425</v>
+      </c>
+      <c r="C218" t="n">
+        <v>2.941444197256964e-07</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>4.667921343975426</v>
+      </c>
+      <c r="C219" t="n">
+        <v>3.023943826127327e-07</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>4.671263592454653</v>
+      </c>
+      <c r="C220" t="n">
+        <v>3.164374996500404e-07</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/a1/a1IntegrandDataPoints5.000000.xlsx
+++ b/legendre_out/DATA/a1/a1IntegrandDataPoints5.000000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>4.473613573651221e-07</v>
+        <v>4.493657067460754e-07</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.43865949305135</v>
       </c>
       <c r="C3" t="n">
-        <v>4.084524576704817e-07</v>
+        <v>4.04209075373646e-07</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.440287767951486</v>
       </c>
       <c r="C4" t="n">
-        <v>3.797122911286922e-07</v>
+        <v>3.827656178537027e-07</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.443801413788623</v>
       </c>
       <c r="C5" t="n">
-        <v>3.553226748033978e-07</v>
+        <v>3.480704204155109e-07</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.445601086046668</v>
       </c>
       <c r="C6" t="n">
-        <v>3.457259606009508e-07</v>
+        <v>3.458548486242046e-07</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.446372374157259</v>
       </c>
       <c r="C7" t="n">
-        <v>3.365643816638083e-07</v>
+        <v>3.419041237726311e-07</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.450743006783942</v>
       </c>
       <c r="C8" t="n">
-        <v>3.257836677127539e-07</v>
+        <v>3.201452318582431e-07</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.454170953942123</v>
       </c>
       <c r="C9" t="n">
-        <v>2.777504133595791e-07</v>
+        <v>2.7807278319389e-07</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.454856543373759</v>
       </c>
       <c r="C10" t="n">
-        <v>2.363251013435839e-07</v>
+        <v>2.433517112343679e-07</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.459227176000442</v>
       </c>
       <c r="C11" t="n">
-        <v>1.626496231509752e-07</v>
+        <v>1.624076607412014e-07</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.463512109948169</v>
       </c>
       <c r="C12" t="n">
-        <v>9.806946887616721e-08</v>
+        <v>9.253692530547024e-08</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C13" t="n">
-        <v>7.394020051289106e-08</v>
+        <v>7.281020811626321e-08</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C14" t="n">
-        <v>3.454812331030239e-07</v>
+        <v>3.421792833567784e-07</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.687271360698501</v>
       </c>
       <c r="C15" t="n">
-        <v>4.676192246169339e-07</v>
+        <v>4.681865073127566e-07</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.689071032956547</v>
       </c>
       <c r="C16" t="n">
-        <v>4.39644225147336e-07</v>
+        <v>4.352312474225214e-07</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.689928019746092</v>
       </c>
       <c r="C17" t="n">
-        <v>4.451164301976988e-07</v>
+        <v>4.482193528321412e-07</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.690699307856684</v>
       </c>
       <c r="C18" t="n">
-        <v>4.407153402310238e-07</v>
+        <v>4.428428308121755e-07</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.691641993325183</v>
       </c>
       <c r="C19" t="n">
-        <v>4.429181171586139e-07</v>
+        <v>4.443984574804467e-07</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.692498980114729</v>
       </c>
       <c r="C20" t="n">
-        <v>4.794737530837041e-07</v>
+        <v>4.784403540859959e-07</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.693270268225319</v>
       </c>
       <c r="C21" t="n">
-        <v>6.516212185524795e-07</v>
+        <v>6.507484505948471e-07</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.694127255014865</v>
       </c>
       <c r="C22" t="n">
-        <v>7.963049266978627e-07</v>
+        <v>7.901668118924591e-07</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.695841228593956</v>
       </c>
       <c r="C23" t="n">
-        <v>9.765978885991732e-07</v>
+        <v>9.836292091346339e-07</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.697555202173048</v>
       </c>
       <c r="C24" t="n">
-        <v>1.03292974805394e-06</v>
+        <v>1.032724107249798e-06</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.699354874431093</v>
       </c>
       <c r="C25" t="n">
-        <v>9.412700695373669e-07</v>
+        <v>9.33364047535763e-07</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.701068848010184</v>
       </c>
       <c r="C26" t="n">
-        <v>8.808753532094549e-07</v>
+        <v>9.14832583333504e-07</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.70286852026823</v>
       </c>
       <c r="C27" t="n">
-        <v>8.940278808634671e-07</v>
+        <v>9.013950083754149e-07</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.703468411020912</v>
       </c>
       <c r="C28" t="n">
-        <v>9.04038935807146e-07</v>
+        <v>9.154154145410897e-07</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.704496795168366</v>
       </c>
       <c r="C29" t="n">
-        <v>8.683715810904853e-07</v>
+        <v>8.650670222658714e-07</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.706125070068503</v>
       </c>
       <c r="C30" t="n">
-        <v>8.207697470702389e-07</v>
+        <v>8.205097408150365e-07</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.707839043647593</v>
       </c>
       <c r="C31" t="n">
-        <v>7.641282686099899e-07</v>
+        <v>7.63428234266658e-07</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.709638715905639</v>
       </c>
       <c r="C32" t="n">
-        <v>7.256176972380944e-07</v>
+        <v>7.348766238731046e-07</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.71135268948473</v>
       </c>
       <c r="C33" t="n">
-        <v>6.743639896479762e-07</v>
+        <v>6.777017939207585e-07</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.713066663063821</v>
       </c>
       <c r="C34" t="n">
-        <v>6.58271654228244e-07</v>
+        <v>6.638251967230586e-07</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.714609239285003</v>
       </c>
       <c r="C35" t="n">
-        <v>5.886443053964332e-07</v>
+        <v>5.765323392882047e-07</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.716494610222004</v>
       </c>
       <c r="C36" t="n">
-        <v>5.030691675896851e-07</v>
+        <v>5.106486759312239e-07</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.718122885122139</v>
       </c>
       <c r="C37" t="n">
-        <v>4.25550858856549e-07</v>
+        <v>4.337283157984852e-07</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.719836858701231</v>
       </c>
       <c r="C38" t="n">
-        <v>3.557069847179127e-07</v>
+        <v>3.562201134167696e-07</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.720693845490776</v>
       </c>
       <c r="C39" t="n">
-        <v>4.037856254377296e-07</v>
+        <v>4.091690072124012e-07</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.721636530959276</v>
       </c>
       <c r="C40" t="n">
-        <v>3.001966778453198e-07</v>
+        <v>2.964324135172081e-07</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.723350504538367</v>
       </c>
       <c r="C41" t="n">
-        <v>3.092440935901583e-07</v>
+        <v>3.1022497380042e-07</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.725064478117458</v>
       </c>
       <c r="C42" t="n">
-        <v>2.945560711859485e-07</v>
+        <v>2.974117262954357e-07</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.729178014707276</v>
       </c>
       <c r="C43" t="n">
-        <v>2.596004245655832e-07</v>
+        <v>2.59126590977041e-07</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.73337724997605</v>
       </c>
       <c r="C44" t="n">
-        <v>2.430528828155509e-07</v>
+        <v>2.441523023516528e-07</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.737747882602732</v>
       </c>
       <c r="C45" t="n">
-        <v>2.380349955459668e-07</v>
+        <v>2.329121679482608e-07</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C46" t="n">
-        <v>1.888636690375719e-07</v>
+        <v>1.90317606138096e-07</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.772113052863507</v>
       </c>
       <c r="C47" t="n">
-        <v>1.890960515988563e-07</v>
+        <v>1.897764574724455e-07</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.789167089975462</v>
       </c>
       <c r="C48" t="n">
-        <v>1.985551139590175e-07</v>
+        <v>1.942831109688801e-07</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.797908355228826</v>
       </c>
       <c r="C49" t="n">
-        <v>1.960573063214406e-07</v>
+        <v>1.99363674733567e-07</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.806478223124282</v>
       </c>
       <c r="C50" t="n">
-        <v>1.946965353716813e-07</v>
+        <v>1.95556145638006e-07</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.814876693661827</v>
       </c>
       <c r="C51" t="n">
-        <v>1.624499090780593e-07</v>
+        <v>1.630254311930153e-07</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.823360862878328</v>
       </c>
       <c r="C52" t="n">
-        <v>1.625557667491381e-07</v>
+        <v>1.721763458397143e-07</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.82773149550501</v>
       </c>
       <c r="C53" t="n">
-        <v>1.012807420633103e-07</v>
+        <v>9.610807892552138e-08</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.832102128131692</v>
       </c>
       <c r="C54" t="n">
-        <v>9.67517266453342e-08</v>
+        <v>1.014814107457162e-07</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.840586297348192</v>
       </c>
       <c r="C55" t="n">
-        <v>9.785110266678925e-08</v>
+        <v>1.027394208505618e-07</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.847442191664556</v>
       </c>
       <c r="C56" t="n">
-        <v>1.326535460574413e-07</v>
+        <v>1.453578456769449e-07</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.854383784659876</v>
       </c>
       <c r="C57" t="n">
-        <v>1.820107471629027e-07</v>
+        <v>1.760707924832875e-07</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.856183456917921</v>
       </c>
       <c r="C58" t="n">
-        <v>2.06369792878343e-07</v>
+        <v>2.054689271441323e-07</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.857811731818057</v>
       </c>
       <c r="C59" t="n">
-        <v>1.998544498889422e-07</v>
+        <v>1.993405988807227e-07</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.859611404076103</v>
       </c>
       <c r="C60" t="n">
-        <v>2.162984595433635e-07</v>
+        <v>2.177027660843948e-07</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.86201096708683</v>
       </c>
       <c r="C61" t="n">
-        <v>2.423476629628212e-07</v>
+        <v>2.426866076589887e-07</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.866295901034558</v>
       </c>
       <c r="C62" t="n">
-        <v>2.588476102976656e-07</v>
+        <v>2.590860910475848e-07</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.875037166287922</v>
       </c>
       <c r="C63" t="n">
-        <v>2.756158685509932e-07</v>
+        <v>2.764031293462297e-07</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.876751139867013</v>
       </c>
       <c r="C64" t="n">
-        <v>3.224033491106623e-07</v>
+        <v>3.238367375279539e-07</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.879236401556695</v>
       </c>
       <c r="C65" t="n">
-        <v>3.234786554977912e-07</v>
+        <v>3.201586388810529e-07</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.883521335504422</v>
       </c>
       <c r="C66" t="n">
-        <v>2.926413444563841e-07</v>
+        <v>2.833013246221455e-07</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.887891968131104</v>
       </c>
       <c r="C67" t="n">
-        <v>2.581363675416085e-07</v>
+        <v>2.729569651377752e-07</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.891491312647195</v>
       </c>
       <c r="C68" t="n">
-        <v>2.876514348199376e-07</v>
+        <v>2.916854248952323e-07</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.896376137347605</v>
       </c>
       <c r="C69" t="n">
-        <v>2.353160594364418e-07</v>
+        <v>2.39920676746108e-07</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.900746769974288</v>
       </c>
       <c r="C70" t="n">
-        <v>1.8232734492478e-07</v>
+        <v>1.826194203611609e-07</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.908973843153924</v>
       </c>
       <c r="C71" t="n">
-        <v>2.336065421086843e-07</v>
+        <v>2.31168290697259e-07</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.917886505765197</v>
       </c>
       <c r="C72" t="n">
-        <v>7.80832946902405e-08</v>
+        <v>7.363865490373121e-08</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.926370674981698</v>
       </c>
       <c r="C73" t="n">
-        <v>5.968054039755383e-08</v>
+        <v>6.924282906738393e-08</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.934854844198199</v>
       </c>
       <c r="C74" t="n">
-        <v>7.734265112288717e-08</v>
+        <v>7.717017541674071e-08</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.943510410772608</v>
       </c>
       <c r="C75" t="n">
-        <v>1.911076750353093e-07</v>
+        <v>1.92641637238425e-07</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.952251676025972</v>
       </c>
       <c r="C76" t="n">
-        <v>5.443905455412819e-07</v>
+        <v>5.443362787620207e-07</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.960564447884564</v>
       </c>
       <c r="C77" t="n">
-        <v>1.558823674446075e-06</v>
+        <v>1.554686531654738e-06</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.969305713137928</v>
       </c>
       <c r="C78" t="n">
-        <v>1.65750133236722e-06</v>
+        <v>1.6873403253059e-06</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.977618484996519</v>
       </c>
       <c r="C79" t="n">
-        <v>1.272239158340942e-06</v>
+        <v>1.256976484569836e-06</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.982160514981111</v>
       </c>
       <c r="C80" t="n">
-        <v>6.591569101389719e-07</v>
+        <v>6.63252428568598e-07</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.986274051570929</v>
       </c>
       <c r="C81" t="n">
-        <v>5.869989261208286e-07</v>
+        <v>5.886573811591811e-07</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.994843919466384</v>
       </c>
       <c r="C82" t="n">
-        <v>6.797411386415905e-07</v>
+        <v>6.793642502449749e-07</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>4.012069353936249</v>
       </c>
       <c r="C83" t="n">
-        <v>6.999895190889301e-07</v>
+        <v>7.003886813535338e-07</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>4.020724920510658</v>
       </c>
       <c r="C84" t="n">
-        <v>4.75148453482077e-07</v>
+        <v>4.771864788479917e-07</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>4.02903769236925</v>
       </c>
       <c r="C85" t="n">
-        <v>3.282910994530365e-07</v>
+        <v>3.267846295662495e-07</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>4.046263126839114</v>
       </c>
       <c r="C86" t="n">
-        <v>2.683112378572014e-07</v>
+        <v>2.660145596555204e-07</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>4.063402862630025</v>
       </c>
       <c r="C87" t="n">
-        <v>2.84222874840097e-07</v>
+        <v>2.843780458144178e-07</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>4.080542598420934</v>
       </c>
       <c r="C88" t="n">
-        <v>4.432463335514721e-07</v>
+        <v>4.433626979479858e-07</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>4.084998929726572</v>
       </c>
       <c r="C89" t="n">
-        <v>9.063429292213417e-07</v>
+        <v>9.075657888334081e-07</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>4.08816978084789</v>
       </c>
       <c r="C90" t="n">
-        <v>9.181352876070659e-07</v>
+        <v>9.164588809214203e-07</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>4.097682334211846</v>
       </c>
       <c r="C91" t="n">
-        <v>8.477868463039083e-07</v>
+        <v>8.530302966622474e-07</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>4.101967268159573</v>
       </c>
       <c r="C92" t="n">
-        <v>6.767077800441107e-07</v>
+        <v>6.781235173033466e-07</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>4.106423599465209</v>
       </c>
       <c r="C93" t="n">
-        <v>4.715757642757437e-07</v>
+        <v>4.752628490648637e-07</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>4.114907768681709</v>
       </c>
       <c r="C94" t="n">
-        <v>7.333151635553615e-07</v>
+        <v>7.274326390590042e-07</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>4.123306239219255</v>
       </c>
       <c r="C95" t="n">
-        <v>1.500679596980777e-06</v>
+        <v>1.507432604940586e-06</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>4.131961805793665</v>
       </c>
       <c r="C96" t="n">
-        <v>1.291628454736683e-06</v>
+        <v>1.293324507861319e-06</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>4.133847176730665</v>
       </c>
       <c r="C97" t="n">
-        <v>8.49589582420137e-07</v>
+        <v>8.521078449140984e-07</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>4.136503835778257</v>
       </c>
       <c r="C98" t="n">
-        <v>5.379773958774754e-07</v>
+        <v>5.393459809309158e-07</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>4.140617372368075</v>
       </c>
       <c r="C99" t="n">
-        <v>2.624799428110424e-07</v>
+        <v>2.609651641634299e-07</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>4.149015842905621</v>
       </c>
       <c r="C100" t="n">
-        <v>1.865334396256603e-07</v>
+        <v>1.869947393558178e-07</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>4.166241277375486</v>
       </c>
       <c r="C101" t="n">
-        <v>1.896989489143425e-07</v>
+        <v>1.89375442972423e-07</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>4.180210162045077</v>
       </c>
       <c r="C102" t="n">
-        <v>1.995076577157262e-07</v>
+        <v>1.987341246966221e-07</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>4.200435050278351</v>
       </c>
       <c r="C103" t="n">
-        <v>2.036847303541044e-07</v>
+        <v>2.026896678194233e-07</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>4.209004918173807</v>
       </c>
       <c r="C104" t="n">
-        <v>2.111426981988462e-07</v>
+        <v>2.120217844292794e-07</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>4.21774618342717</v>
       </c>
       <c r="C105" t="n">
-        <v>2.086628227634652e-07</v>
+        <v>2.089824935293002e-07</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>4.226230352643671</v>
       </c>
       <c r="C106" t="n">
-        <v>2.065675247881813e-07</v>
+        <v>2.075365802571192e-07</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>4.231543670738853</v>
       </c>
       <c r="C107" t="n">
-        <v>2.14294337712265e-07</v>
+        <v>2.126638685140885e-07</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>4.234971617897036</v>
       </c>
       <c r="C108" t="n">
-        <v>2.167435004496433e-07</v>
+        <v>2.170772531560286e-07</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>4.24071342938699</v>
       </c>
       <c r="C109" t="n">
-        <v>2.157978116719568e-07</v>
+        <v>2.142777562154729e-07</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>4.249111899924536</v>
       </c>
       <c r="C110" t="n">
-        <v>2.140871412174155e-07</v>
+        <v>2.140645257953673e-07</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>4.2521970523669</v>
       </c>
       <c r="C111" t="n">
-        <v>2.212946777411423e-07</v>
+        <v>2.205675846957139e-07</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>4.257767466498946</v>
       </c>
       <c r="C112" t="n">
-        <v>2.100443638995679e-07</v>
+        <v>2.097585990265112e-07</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>4.262138099125628</v>
       </c>
       <c r="C113" t="n">
-        <v>2.170003172938699e-07</v>
+        <v>2.162206559303069e-07</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>4.264537662136355</v>
       </c>
       <c r="C114" t="n">
-        <v>2.159506966656768e-07</v>
+        <v>2.152328149519065e-07</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>4.267280019862901</v>
       </c>
       <c r="C115" t="n">
-        <v>2.201478610252459e-07</v>
+        <v>2.21767832921595e-07</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>4.269079692120946</v>
       </c>
       <c r="C116" t="n">
-        <v>2.329252493115178e-07</v>
+        <v>2.338932779515718e-07</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>4.271479255131674</v>
       </c>
       <c r="C117" t="n">
-        <v>2.187063706317989e-07</v>
+        <v>2.197249350744465e-07</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>4.273021831352856</v>
       </c>
       <c r="C118" t="n">
-        <v>2.219441003377906e-07</v>
+        <v>2.22631692486845e-07</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>4.281677397927266</v>
       </c>
       <c r="C119" t="n">
-        <v>2.203305340241643e-07</v>
+        <v>2.210876913068049e-07</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>4.286305126590811</v>
       </c>
       <c r="C120" t="n">
-        <v>2.331311103142919e-07</v>
+        <v>2.326604684298115e-07</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>4.29024726582272</v>
       </c>
       <c r="C121" t="n">
-        <v>2.22886141405235e-07</v>
+        <v>2.225054131758263e-07</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>4.298731435039221</v>
       </c>
       <c r="C122" t="n">
-        <v>2.250533738770597e-07</v>
+        <v>2.256287356534593e-07</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>4.303359163702766</v>
       </c>
       <c r="C123" t="n">
-        <v>2.421423790765827e-07</v>
+        <v>2.429415198684813e-07</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>4.307472700292585</v>
       </c>
       <c r="C124" t="n">
-        <v>2.560545323644922e-07</v>
+        <v>2.564815201468775e-07</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>4.309957961982268</v>
       </c>
       <c r="C125" t="n">
-        <v>2.883827502559472e-07</v>
+        <v>2.897524451077407e-07</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>4.310129359340176</v>
       </c>
       <c r="C126" t="n">
-        <v>2.860752922837012e-07</v>
+        <v>2.858511332947237e-07</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>4.311757634240313</v>
       </c>
       <c r="C127" t="n">
-        <v>3.519341702486506e-07</v>
+        <v>3.52554080480365e-07</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>4.31604256818804</v>
       </c>
       <c r="C128" t="n">
-        <v>5.536575790385972e-07</v>
+        <v>5.577795393568275e-07</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>4.318613528556677</v>
       </c>
       <c r="C129" t="n">
-        <v>7.520292873177409e-07</v>
+        <v>7.517364310738068e-07</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>4.320584598172632</v>
       </c>
       <c r="C130" t="n">
-        <v>7.446342907168819e-07</v>
+        <v>7.44057287252409e-07</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>4.322898462504404</v>
       </c>
       <c r="C131" t="n">
-        <v>7.001387975201086e-07</v>
+        <v>7.031381197050173e-07</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>4.325555121551995</v>
       </c>
       <c r="C132" t="n">
-        <v>6.796444804088358e-07</v>
+        <v>6.857795883887235e-07</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>4.327954684562723</v>
       </c>
       <c r="C133" t="n">
-        <v>6.697194857833456e-07</v>
+        <v>6.678912496482189e-07</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>4.330782740968223</v>
       </c>
       <c r="C134" t="n">
-        <v>6.268597122404799e-07</v>
+        <v>6.289586819208143e-07</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>4.33318230397895</v>
       </c>
       <c r="C135" t="n">
-        <v>5.618763811842943e-07</v>
+        <v>5.622773904407461e-07</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>4.337638635284587</v>
       </c>
       <c r="C136" t="n">
-        <v>4.160110820786459e-07</v>
+        <v>4.189096705307622e-07</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>4.341752171874406</v>
       </c>
       <c r="C137" t="n">
-        <v>2.969341693210131e-07</v>
+        <v>2.973934059339264e-07</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>4.350407738448815</v>
       </c>
       <c r="C138" t="n">
-        <v>5.730667859064043e-07</v>
+        <v>5.738551539661056e-07</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>4.354692672396543</v>
       </c>
       <c r="C139" t="n">
-        <v>5.527259598379173e-07</v>
+        <v>5.560401944019997e-07</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>4.358634811628452</v>
       </c>
       <c r="C140" t="n">
-        <v>5.637168353677553e-07</v>
+        <v>5.632559472135555e-07</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>4.366947583487043</v>
       </c>
       <c r="C141" t="n">
-        <v>4.991838207242212e-07</v>
+        <v>5.001768980580472e-07</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>4.371918106866407</v>
       </c>
       <c r="C142" t="n">
-        <v>4.976777695210325e-07</v>
+        <v>4.974392789676123e-07</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>4.375088957987725</v>
       </c>
       <c r="C143" t="n">
-        <v>8.796872835464825e-07</v>
+        <v>8.805393292846557e-07</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>4.377745617035317</v>
       </c>
       <c r="C144" t="n">
-        <v>1.144127450695672e-06</v>
+        <v>1.146841560945258e-06</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>4.379545289293363</v>
       </c>
       <c r="C145" t="n">
-        <v>1.103545376070881e-06</v>
+        <v>1.104980121070666e-06</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>4.380487974761863</v>
       </c>
       <c r="C146" t="n">
-        <v>1.113948908912622e-06</v>
+        <v>1.112657494547601e-06</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>4.380830769477681</v>
       </c>
       <c r="C147" t="n">
-        <v>1.087322485191876e-06</v>
+        <v>1.090059317274099e-06</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>4.381087865514544</v>
       </c>
       <c r="C148" t="n">
-        <v>1.094158083951174e-06</v>
+        <v>1.095704763415901e-06</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>4.382973236451544</v>
       </c>
       <c r="C149" t="n">
-        <v>1.821773655331743e-06</v>
+        <v>1.823791388791855e-06</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>4.384687210030635</v>
       </c>
       <c r="C150" t="n">
-        <v>1.928270489677204e-06</v>
+        <v>1.93088312997316e-06</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>4.386401183609727</v>
       </c>
       <c r="C151" t="n">
-        <v>1.803413446649217e-06</v>
+        <v>1.805592200645881e-06</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>4.388029458509863</v>
       </c>
       <c r="C152" t="n">
-        <v>1.730768936651516e-06</v>
+        <v>1.734780430303782e-06</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>4.389057842657317</v>
       </c>
       <c r="C153" t="n">
-        <v>1.729712390466103e-06</v>
+        <v>1.729268178993303e-06</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>4.389743432088954</v>
       </c>
       <c r="C154" t="n">
-        <v>1.633038480617262e-06</v>
+        <v>1.635993156700597e-06</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>4.392314392457591</v>
       </c>
       <c r="C155" t="n">
-        <v>1.526908178464123e-06</v>
+        <v>1.528969101350723e-06</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>4.396599326405318</v>
       </c>
       <c r="C156" t="n">
-        <v>1.237934739719015e-06</v>
+        <v>1.239704173477788e-06</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>4.400884260353045</v>
       </c>
       <c r="C157" t="n">
-        <v>8.705117878170348e-07</v>
+        <v>8.702153324718821e-07</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>4.404912098263909</v>
       </c>
       <c r="C158" t="n">
-        <v>4.90209350362571e-07</v>
+        <v>4.903921227428685e-07</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>4.406111879769273</v>
       </c>
       <c r="C159" t="n">
-        <v>5.15993194654908e-07</v>
+        <v>5.159189480732603e-07</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>4.4094541282485</v>
       </c>
       <c r="C160" t="n">
-        <v>2.792754019909857e-07</v>
+        <v>2.801114884083153e-07</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>4.413824760875183</v>
       </c>
       <c r="C161" t="n">
-        <v>2.484929125470631e-07</v>
+        <v>2.480254198452908e-07</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>4.41622432388591</v>
       </c>
       <c r="C162" t="n">
-        <v>2.59461571749779e-07</v>
+        <v>2.592108173527854e-07</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>4.418795284254546</v>
       </c>
       <c r="C163" t="n">
-        <v>2.561617366418937e-07</v>
+        <v>2.568029092645668e-07</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>4.421623340660047</v>
       </c>
       <c r="C164" t="n">
-        <v>2.629650351404061e-07</v>
+        <v>2.647400836203858e-07</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>4.423337314239138</v>
       </c>
       <c r="C165" t="n">
-        <v>2.724377728355831e-07</v>
+        <v>2.723238728655227e-07</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>4.424194301028683</v>
       </c>
       <c r="C166" t="n">
-        <v>2.740633125413381e-07</v>
+        <v>2.728839569657193e-07</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>4.429336221765956</v>
       </c>
       <c r="C167" t="n">
-        <v>2.877483137534793e-07</v>
+        <v>2.8759259910251e-07</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>4.431392990060865</v>
       </c>
       <c r="C168" t="n">
-        <v>3.01727184482054e-07</v>
+        <v>3.032380265205726e-07</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>4.440477050030048</v>
       </c>
       <c r="C169" t="n">
-        <v>2.932904711827917e-07</v>
+        <v>2.953430442151397e-07</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>4.457445388463049</v>
       </c>
       <c r="C170" t="n">
-        <v>3.278181028758791e-07</v>
+        <v>3.288467621134182e-07</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>4.474756521611869</v>
       </c>
       <c r="C171" t="n">
-        <v>4.097909134552506e-07</v>
+        <v>4.102954684020931e-07</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>4.491896257402779</v>
       </c>
       <c r="C172" t="n">
-        <v>5.676211733466079e-07</v>
+        <v>5.686833143102836e-07</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>4.500037631903461</v>
       </c>
       <c r="C173" t="n">
-        <v>8.064354515200878e-07</v>
+        <v>8.085497567371216e-07</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>4.503122784345824</v>
       </c>
       <c r="C174" t="n">
-        <v>8.668641139570812e-07</v>
+        <v>8.685887021339493e-07</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>4.509121691872643</v>
       </c>
       <c r="C175" t="n">
-        <v>1.192103014331883e-06</v>
+        <v>1.192500899957753e-06</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>4.517520162410189</v>
       </c>
       <c r="C176" t="n">
-        <v>1.533099725933628e-06</v>
+        <v>1.533919517985868e-06</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>4.521890795036872</v>
       </c>
       <c r="C177" t="n">
-        <v>1.589715310964418e-06</v>
+        <v>1.58966810460217e-06</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>4.526175728984599</v>
       </c>
       <c r="C178" t="n">
-        <v>1.68184452033412e-06</v>
+        <v>1.679078212612088e-06</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>4.530460662932327</v>
       </c>
       <c r="C179" t="n">
-        <v>1.915196386842396e-06</v>
+        <v>1.91721897266396e-06</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>4.534574199522145</v>
       </c>
       <c r="C180" t="n">
-        <v>2.56538061735659e-06</v>
+        <v>2.562173099728052e-06</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>4.539030530827781</v>
       </c>
       <c r="C181" t="n">
-        <v>3.01984242717398e-06</v>
+        <v>3.029037030193666e-06</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>4.543486862133419</v>
       </c>
       <c r="C182" t="n">
-        <v>3.837109617738417e-06</v>
+        <v>3.836690990187378e-06</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>4.545800726465191</v>
       </c>
       <c r="C183" t="n">
-        <v>4.398179643776911e-06</v>
+        <v>4.407524119036464e-06</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>4.549914263055009</v>
       </c>
       <c r="C184" t="n">
-        <v>4.233852968990499e-06</v>
+        <v>4.2322910706945e-06</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>4.551628236634101</v>
       </c>
       <c r="C185" t="n">
-        <v>4.153322909225467e-06</v>
+        <v>4.158206020539472e-06</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>4.553942100965873</v>
       </c>
       <c r="C186" t="n">
-        <v>4.047929709327105e-06</v>
+        <v>4.051685783231673e-06</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>4.558912624345237</v>
       </c>
       <c r="C187" t="n">
-        <v>3.173302558513602e-06</v>
+        <v>3.176938109999074e-06</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>4.562940462256101</v>
       </c>
       <c r="C188" t="n">
-        <v>2.345922701274896e-06</v>
+        <v>2.347858524086576e-06</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>4.56688260148801</v>
       </c>
       <c r="C189" t="n">
-        <v>1.641165158918737e-06</v>
+        <v>1.641556385340736e-06</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>4.571424631472602</v>
       </c>
       <c r="C190" t="n">
-        <v>1.103747045459717e-06</v>
+        <v>1.103322557063148e-06</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>4.575623866741375</v>
       </c>
       <c r="C191" t="n">
-        <v>7.628301137251817e-07</v>
+        <v>7.640871441261285e-07</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>4.580080198047011</v>
       </c>
       <c r="C192" t="n">
-        <v>5.714489777196673e-07</v>
+        <v>5.730125020500805e-07</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>4.58402233727892</v>
       </c>
       <c r="C193" t="n">
-        <v>5.105802595236376e-07</v>
+        <v>5.116506468136122e-07</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>4.588478668584557</v>
       </c>
       <c r="C194" t="n">
-        <v>4.618353826193912e-07</v>
+        <v>4.635766992415775e-07</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>4.588650065942466</v>
       </c>
       <c r="C195" t="n">
-        <v>4.598261563200145e-07</v>
+        <v>4.602517913085783e-07</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>4.592078013100648</v>
       </c>
       <c r="C196" t="n">
-        <v>4.071901997461625e-07</v>
+        <v>4.07512837937112e-07</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>4.593277794606012</v>
       </c>
       <c r="C197" t="n">
-        <v>3.987585922889965e-07</v>
+        <v>3.993041959711017e-07</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>4.593534890642876</v>
       </c>
       <c r="C198" t="n">
-        <v>3.93824938303279e-07</v>
+        <v>3.934805792552325e-07</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>4.596534344406285</v>
       </c>
       <c r="C199" t="n">
-        <v>4.126865175085568e-07</v>
+        <v>4.146772084998343e-07</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>4.597819824590603</v>
       </c>
       <c r="C200" t="n">
-        <v>3.846828498620418e-07</v>
+        <v>3.838233329909446e-07</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>4.601504867785649</v>
       </c>
       <c r="C201" t="n">
-        <v>4.958152165029524e-07</v>
+        <v>4.95226531438194e-07</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>4.603133142685785</v>
       </c>
       <c r="C202" t="n">
-        <v>4.78648126434489e-07</v>
+        <v>4.815910568949793e-07</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>4.604932814943831</v>
       </c>
       <c r="C203" t="n">
-        <v>4.722676795590973e-07</v>
+        <v>4.716039724973731e-07</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>4.606646788522922</v>
       </c>
       <c r="C204" t="n">
-        <v>4.684188128822859e-07</v>
+        <v>4.681644310873861e-07</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>4.608446460780968</v>
       </c>
       <c r="C205" t="n">
-        <v>4.613849507446374e-07</v>
+        <v>4.614549421466458e-07</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>4.610160434360059</v>
       </c>
       <c r="C206" t="n">
-        <v>4.626260701428646e-07</v>
+        <v>4.630782363745413e-07</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>4.611617311902286</v>
       </c>
       <c r="C207" t="n">
-        <v>4.593037777939792e-07</v>
+        <v>4.584146953472489e-07</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>4.615987944528968</v>
       </c>
       <c r="C208" t="n">
-        <v>4.025013864127029e-07</v>
+        <v>4.029935836811254e-07</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>4.620529974513559</v>
       </c>
       <c r="C209" t="n">
-        <v>3.367450099461502e-07</v>
+        <v>3.384974792490635e-07</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>4.622929537524286</v>
       </c>
       <c r="C210" t="n">
-        <v>3.19121884170539e-07</v>
+        <v>3.200615901116267e-07</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>4.623272332240105</v>
       </c>
       <c r="C211" t="n">
-        <v>3.316717076111793e-07</v>
+        <v>3.311169969318047e-07</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>4.623786524313832</v>
       </c>
       <c r="C212" t="n">
-        <v>3.17941851284811e-07</v>
+        <v>3.186737034465404e-07</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>4.625586196571877</v>
       </c>
       <c r="C213" t="n">
-        <v>3.116592841628245e-07</v>
+        <v>3.110984553390637e-07</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>4.628928445051105</v>
       </c>
       <c r="C214" t="n">
-        <v>3.065418550350015e-07</v>
+        <v>3.073789188312548e-07</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>4.631670802777651</v>
       </c>
       <c r="C215" t="n">
-        <v>3.077507461781257e-07</v>
+        <v>3.090792513133477e-07</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>4.64049776670997</v>
       </c>
       <c r="C216" t="n">
-        <v>3.194494281458229e-07</v>
+        <v>3.198270824177456e-07</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>4.649667525358106</v>
       </c>
       <c r="C217" t="n">
-        <v>3.122246784307809e-07</v>
+        <v>3.121605652444626e-07</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>4.658494489290425</v>
       </c>
       <c r="C218" t="n">
-        <v>2.941444197256964e-07</v>
+        <v>2.938338964970479e-07</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>4.667921343975426</v>
       </c>
       <c r="C219" t="n">
-        <v>3.023943826127327e-07</v>
+        <v>3.028465998478303e-07</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C220" t="n">
-        <v>3.164374996500404e-07</v>
+        <v>3.165414904561734e-07</v>
       </c>
     </row>
   </sheetData>
